--- a/spec/ConvSpec-490,510-Links-v1.7.xlsx
+++ b/spec/ConvSpec-490,510-Links-v1.7.xlsx
@@ -146,16 +146,16 @@
     <t>See Subfield $6.3 spec</t>
   </si>
   <si>
-    <t>## - note - Note - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/coverage" ; rdfs:label "content of $b"</t>
-  </si>
-  <si>
-    <t>## - note - Note - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/loc" ; rdfs:label "content of $c"</t>
-  </si>
-  <si>
     <t>See Subfield $6.2 spec</t>
   </si>
   <si>
-    <t>Fields 490, 510 -  Other linking entries - v1.7, 08/04/2021</t>
+    <t>## - note - Note - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/coverage" ; rdfs:label "content of $b"</t>
+  </si>
+  <si>
+    <t>## - note - Note - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/loc" ; rdfs:label "content of $c"</t>
+  </si>
+  <si>
+    <t>Fields 490, 510 -  Other linking entries - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -206,18 +206,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -255,9 +249,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -270,7 +261,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,14 +574,14 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.26953125" style="2" customWidth="1"/>
@@ -598,10 +592,10 @@
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -612,10 +606,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -626,19 +620,17 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -651,7 +643,7 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -659,7 +651,7 @@
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -667,7 +659,7 @@
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -675,7 +667,7 @@
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -683,7 +675,7 @@
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -699,10 +691,10 @@
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -713,13 +705,13 @@
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -727,7 +719,7 @@
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -735,7 +727,7 @@
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -743,7 +735,7 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -751,7 +743,7 @@
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -764,7 +756,7 @@
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -772,23 +764,23 @@
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
+      <c r="B26" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
+      <c r="B27" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -796,7 +788,7 @@
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -804,7 +796,7 @@
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -813,17 +805,14 @@
         <v>3</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E41" s="6"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="7"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E90" s="6"/>
+      <c r="E90" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
